--- a/data/표준내역 이력.xlsx
+++ b/data/표준내역 이력.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCode\TA Demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD582A7F-1085-4C03-926F-F0EAE3A81697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A45727B-A8B8-45E5-A267-74FC5BBC365A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="6480" windowWidth="23010" windowHeight="12210" xr2:uid="{A12870C1-4AFF-4A30-9A4B-D81E11572BA3}"/>
+    <workbookView xWindow="915" yWindow="3105" windowWidth="29040" windowHeight="13350" xr2:uid="{A12870C1-4AFF-4A30-9A4B-D81E11572BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
-    <t>주택(순타)</t>
-  </si>
-  <si>
     <t>25-04-09 표준내역 등록</t>
   </si>
   <si>
@@ -103,11 +100,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건적팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소속부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +499,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,28 +511,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -539,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>2025</v>
@@ -548,13 +549,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>45758.518796296295</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -565,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2025</v>
@@ -574,13 +575,13 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>45754.799733796295</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -591,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>2025</v>
@@ -600,13 +601,13 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <v>45750.552986111114</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -617,7 +618,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2025</v>
@@ -626,13 +627,13 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <v>45749.688263888886</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -643,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2025</v>
@@ -652,13 +653,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
         <v>45748.733483796299</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -669,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>2025</v>
@@ -678,13 +679,13 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
         <v>45748.57303240741</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -695,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>2025</v>
@@ -704,13 +705,13 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <v>45747.778298611112</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -721,7 +722,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>2025</v>
@@ -730,13 +731,13 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
         <v>45735.590671296297</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -747,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>2025</v>
@@ -756,13 +757,13 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1">
         <v>45734.450104166666</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
@@ -773,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>2025</v>
@@ -782,13 +783,13 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1">
         <v>45730.674467592595</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
